--- a/data/classifier_train/broad_assets_roc_train.xlsx
+++ b/data/classifier_train/broad_assets_roc_train.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L882"/>
+  <dimension ref="A1:L881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33941,44 +33941,6 @@
         <v>-0.3864572837780977</v>
       </c>
     </row>
-    <row r="882">
-      <c r="A882" s="2" t="n">
-        <v>44004</v>
-      </c>
-      <c r="B882" t="n">
-        <v>0.02255531464629312</v>
-      </c>
-      <c r="C882" t="n">
-        <v>0.5377886700097338</v>
-      </c>
-      <c r="D882" t="n">
-        <v>0.4537720787972235</v>
-      </c>
-      <c r="E882" t="n">
-        <v>0.1635158006407158</v>
-      </c>
-      <c r="F882" t="n">
-        <v>-0.2554992341973042</v>
-      </c>
-      <c r="G882" t="n">
-        <v>-0.2959426226049843</v>
-      </c>
-      <c r="H882" t="n">
-        <v>-0.2049333306343617</v>
-      </c>
-      <c r="I882" t="n">
-        <v>-0.1720568666266423</v>
-      </c>
-      <c r="J882" t="n">
-        <v>0.05208478572901742</v>
-      </c>
-      <c r="K882" t="n">
-        <v>0.4608230087768141</v>
-      </c>
-      <c r="L882" t="n">
-        <v>-0.3945600432608974</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
